--- a/biology/Botanique/Parcs_et_jardins_d'Évreux/Parcs_et_jardins_d'Évreux.xlsx
+++ b/biology/Botanique/Parcs_et_jardins_d'Évreux/Parcs_et_jardins_d'Évreux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parcs_et_jardins_d%27%C3%89vreux</t>
+          <t>Parcs_et_jardins_d'Évreux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Évreux compte de nombreux jardins botaniques, qui en font d'un point vue écologique l'une des villes les plus vertes de Normandie[1],[2],[3]. La municipalité d'Évreux s'oriente de plus en plus vert une gestion durable des espace vert de manière différencier en tenant compte du microclimat et la micro-géologies[4]. En 2023, la ville distribue des plantes gratuitement aux habitants[5][pertinence contestée].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Évreux compte de nombreux jardins botaniques, qui en font d'un point vue écologique l'une des villes les plus vertes de Normandie. La municipalité d'Évreux s'oriente de plus en plus vert une gestion durable des espace vert de manière différencier en tenant compte du microclimat et la micro-géologies. En 2023, la ville distribue des plantes gratuitement aux habitants[pertinence contestée].
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parcs_et_jardins_d%27%C3%89vreux</t>
+          <t>Parcs_et_jardins_d'Évreux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,19 +525,126 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Centre-ville
-Jardin botanique d'Évreux, célèbre pour ses vignes qui appartiennent à la ville[6].
-Jardin de l'évêque[7]
-Miroir d'eau et île adjacente[7]
-Saint-Michel d'Évreux
-Forêt d'Évreux
-Jardin des coteaux de Saint-Michel[8]
-La Madeleine/Netreville
-Jardin des coteaux de la Madeleine
-Jardin du château de Trangis[9]
-Jardin de l'Institution Notre-Dame Saint-François avec sa ruche et son élevage de brebis, censées entretenir le domaine[10].
-Navarre/Cambole
-La Voie verte</t>
+          <t>Centre-ville</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Jardin botanique d'Évreux, célèbre pour ses vignes qui appartiennent à la ville.
+Jardin de l'évêque
+Miroir d'eau et île adjacente</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Parcs_et_jardins_d'Évreux</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parcs_et_jardins_d%27%C3%89vreux</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste de jardins botaniques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Saint-Michel d'Évreux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Forêt d'Évreux
+Jardin des coteaux de Saint-Michel</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Parcs_et_jardins_d'Évreux</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parcs_et_jardins_d%27%C3%89vreux</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste de jardins botaniques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La Madeleine/Netreville</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jardin des coteaux de la Madeleine
+Jardin du château de Trangis
+Jardin de l'Institution Notre-Dame Saint-François avec sa ruche et son élevage de brebis, censées entretenir le domaine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Parcs_et_jardins_d'Évreux</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Parcs_et_jardins_d%27%C3%89vreux</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste de jardins botaniques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Navarre/Cambole</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La Voie verte</t>
         </is>
       </c>
     </row>
